--- a/natmiOut/OldD4/LR-pairs_lrc2p/Mif-Cd74.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Mif-Cd74.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.785067479613</v>
+        <v>15.036225</v>
       </c>
       <c r="H2">
-        <v>11.785067479613</v>
+        <v>45.10867500000001</v>
       </c>
       <c r="I2">
-        <v>0.06751853751259571</v>
+        <v>0.07077603440906459</v>
       </c>
       <c r="J2">
-        <v>0.06751853751259571</v>
+        <v>0.07819295295152685</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.99774075956296</v>
+        <v>3.757653333333334</v>
       </c>
       <c r="N2">
-        <v>2.99774075956296</v>
+        <v>11.27296</v>
       </c>
       <c r="O2">
-        <v>0.0008211042193094737</v>
+        <v>0.0006253057195333491</v>
       </c>
       <c r="P2">
-        <v>0.0008211042193094737</v>
+        <v>0.0006253596992176285</v>
       </c>
       <c r="Q2">
-        <v>35.32857713783581</v>
+        <v>56.50092099200001</v>
       </c>
       <c r="R2">
-        <v>35.32857713783581</v>
+        <v>508.5082889280001</v>
       </c>
       <c r="S2">
-        <v>5.543975603319731E-05</v>
+        <v>4.425665912187721E-05</v>
       </c>
       <c r="T2">
-        <v>5.543975603319731E-05</v>
+        <v>4.889872153870501E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.785067479613</v>
+        <v>15.036225</v>
       </c>
       <c r="H3">
-        <v>11.785067479613</v>
+        <v>45.10867500000001</v>
       </c>
       <c r="I3">
-        <v>0.06751853751259571</v>
+        <v>0.07077603440906459</v>
       </c>
       <c r="J3">
-        <v>0.06751853751259571</v>
+        <v>0.07819295295152685</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.47644740283372</v>
+        <v>6.337854</v>
       </c>
       <c r="N3">
-        <v>3.47644740283372</v>
+        <v>19.013562</v>
       </c>
       <c r="O3">
-        <v>0.0009522256457861252</v>
+        <v>0.001054673224006999</v>
       </c>
       <c r="P3">
-        <v>0.0009522256457861252</v>
+        <v>0.001054764268956488</v>
       </c>
       <c r="Q3">
-        <v>40.97016723172074</v>
+        <v>95.29739876115001</v>
       </c>
       <c r="R3">
-        <v>40.97016723172074</v>
+        <v>857.6765888503501</v>
       </c>
       <c r="S3">
-        <v>6.429288298546617E-05</v>
+        <v>7.464558839263846E-05</v>
       </c>
       <c r="T3">
-        <v>6.429288298546617E-05</v>
+        <v>8.247513285746627E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.785067479613</v>
+        <v>15.036225</v>
       </c>
       <c r="H4">
-        <v>11.785067479613</v>
+        <v>45.10867500000001</v>
       </c>
       <c r="I4">
-        <v>0.06751853751259571</v>
+        <v>0.07077603440906459</v>
       </c>
       <c r="J4">
-        <v>0.06751853751259571</v>
+        <v>0.07819295295152685</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1983.20185223735</v>
+        <v>3733.712707666667</v>
       </c>
       <c r="N4">
-        <v>1983.20185223735</v>
+        <v>11201.138123</v>
       </c>
       <c r="O4">
-        <v>0.5432142200487869</v>
+        <v>0.6213217942399283</v>
       </c>
       <c r="P4">
-        <v>0.5432142200487869</v>
+        <v>0.6213754300107861</v>
       </c>
       <c r="Q4">
-        <v>23372.16765431066</v>
+        <v>56140.94435783524</v>
       </c>
       <c r="R4">
-        <v>23372.16765431066</v>
+        <v>505268.4992205171</v>
       </c>
       <c r="S4">
-        <v>0.03667702969373944</v>
+        <v>0.04397469268822692</v>
       </c>
       <c r="T4">
-        <v>0.03667702969373944</v>
+        <v>0.04858717976406816</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.785067479613</v>
+        <v>15.036225</v>
       </c>
       <c r="H5">
-        <v>11.785067479613</v>
+        <v>45.10867500000001</v>
       </c>
       <c r="I5">
-        <v>0.06751853751259571</v>
+        <v>0.07077603440906459</v>
       </c>
       <c r="J5">
-        <v>0.06751853751259571</v>
+        <v>0.07819295295152685</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1659.70205225001</v>
+        <v>2263.941528333333</v>
       </c>
       <c r="N5">
-        <v>1659.70205225001</v>
+        <v>6791.824585</v>
       </c>
       <c r="O5">
-        <v>0.4546051400714705</v>
+        <v>0.3767392733645568</v>
       </c>
       <c r="P5">
-        <v>0.4546051400714705</v>
+        <v>0.3767717954835726</v>
       </c>
       <c r="Q5">
-        <v>19559.70068181855</v>
+        <v>34041.13420686388</v>
       </c>
       <c r="R5">
-        <v>19559.70068181855</v>
+        <v>306370.207861775</v>
       </c>
       <c r="S5">
-        <v>0.0306942742033344</v>
+        <v>0.02666411177489586</v>
       </c>
       <c r="T5">
-        <v>0.0306942742033344</v>
+        <v>0.02946089927770929</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.785067479613</v>
+        <v>15.036225</v>
       </c>
       <c r="H6">
-        <v>11.785067479613</v>
+        <v>45.10867500000001</v>
       </c>
       <c r="I6">
-        <v>0.06751853751259571</v>
+        <v>0.07077603440906459</v>
       </c>
       <c r="J6">
-        <v>0.06751853751259571</v>
+        <v>0.07819295295152685</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.48703392818052</v>
+        <v>1.5561305</v>
       </c>
       <c r="N6">
-        <v>1.48703392818052</v>
+        <v>3.112261</v>
       </c>
       <c r="O6">
-        <v>0.0004073100146469559</v>
+        <v>0.0002589534519745364</v>
       </c>
       <c r="P6">
-        <v>0.0004073100146469559</v>
+        <v>0.0001726505374672451</v>
       </c>
       <c r="Q6">
-        <v>17.52479518808142</v>
+        <v>23.3983283273625</v>
       </c>
       <c r="R6">
-        <v>17.52479518808142</v>
+        <v>140.389969964175</v>
       </c>
       <c r="S6">
-        <v>2.75009765031964E-05</v>
+        <v>1.832769842729585E-05</v>
       </c>
       <c r="T6">
-        <v>2.75009765031964E-05</v>
+        <v>1.350005535323212E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>66.67523243787021</v>
+        <v>72.75905966666666</v>
       </c>
       <c r="H7">
-        <v>66.67523243787021</v>
+        <v>218.277179</v>
       </c>
       <c r="I7">
-        <v>0.3819930764338067</v>
+        <v>0.3424794262216203</v>
       </c>
       <c r="J7">
-        <v>0.3819930764338067</v>
+        <v>0.378369286793261</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.99774075956296</v>
+        <v>3.757653333333334</v>
       </c>
       <c r="N7">
-        <v>2.99774075956296</v>
+        <v>11.27296</v>
       </c>
       <c r="O7">
-        <v>0.0008211042193094737</v>
+        <v>0.0006253057195333491</v>
       </c>
       <c r="P7">
-        <v>0.0008211042193094737</v>
+        <v>0.0006253596992176285</v>
       </c>
       <c r="Q7">
-        <v>199.8750619323379</v>
+        <v>273.4033230866489</v>
       </c>
       <c r="R7">
-        <v>199.8750619323379</v>
+        <v>2460.62990777984</v>
       </c>
       <c r="S7">
-        <v>0.000313656126806805</v>
+        <v>0.0002141543440388788</v>
       </c>
       <c r="T7">
-        <v>0.000313656126806805</v>
+        <v>0.0002366169033822223</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>66.67523243787021</v>
+        <v>72.75905966666666</v>
       </c>
       <c r="H8">
-        <v>66.67523243787021</v>
+        <v>218.277179</v>
       </c>
       <c r="I8">
-        <v>0.3819930764338067</v>
+        <v>0.3424794262216203</v>
       </c>
       <c r="J8">
-        <v>0.3819930764338067</v>
+        <v>0.378369286793261</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.47644740283372</v>
+        <v>6.337854</v>
       </c>
       <c r="N8">
-        <v>3.47644740283372</v>
+        <v>19.013562</v>
       </c>
       <c r="O8">
-        <v>0.0009522256457861252</v>
+        <v>0.001054673224006999</v>
       </c>
       <c r="P8">
-        <v>0.0009522256457861252</v>
+        <v>0.001054764268956488</v>
       </c>
       <c r="Q8">
-        <v>231.7929386419685</v>
+        <v>461.1362973446219</v>
       </c>
       <c r="R8">
-        <v>231.7929386419685</v>
+        <v>4150.226676101598</v>
       </c>
       <c r="S8">
-        <v>0.0003637436038930103</v>
+        <v>0.0003612038806092236</v>
       </c>
       <c r="T8">
-        <v>0.0003637436038930103</v>
+        <v>0.0003990904041800817</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>66.67523243787021</v>
+        <v>72.75905966666666</v>
       </c>
       <c r="H9">
-        <v>66.67523243787021</v>
+        <v>218.277179</v>
       </c>
       <c r="I9">
-        <v>0.3819930764338067</v>
+        <v>0.3424794262216203</v>
       </c>
       <c r="J9">
-        <v>0.3819930764338067</v>
+        <v>0.378369286793261</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1983.20185223735</v>
+        <v>3733.712707666667</v>
       </c>
       <c r="N9">
-        <v>1983.20185223735</v>
+        <v>11201.138123</v>
       </c>
       <c r="O9">
-        <v>0.5432142200487869</v>
+        <v>0.6213217942399283</v>
       </c>
       <c r="P9">
-        <v>0.5432142200487869</v>
+        <v>0.6213754300107861</v>
       </c>
       <c r="Q9">
-        <v>132230.44446914</v>
+        <v>271661.4256753105</v>
       </c>
       <c r="R9">
-        <v>132230.44446914</v>
+        <v>2444952.831077795</v>
       </c>
       <c r="S9">
-        <v>0.207504071079027</v>
+        <v>0.2127899315902783</v>
       </c>
       <c r="T9">
-        <v>0.207504071079027</v>
+        <v>0.235109378284037</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>66.67523243787021</v>
+        <v>72.75905966666666</v>
       </c>
       <c r="H10">
-        <v>66.67523243787021</v>
+        <v>218.277179</v>
       </c>
       <c r="I10">
-        <v>0.3819930764338067</v>
+        <v>0.3424794262216203</v>
       </c>
       <c r="J10">
-        <v>0.3819930764338067</v>
+        <v>0.378369286793261</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1659.70205225001</v>
+        <v>2263.941528333333</v>
       </c>
       <c r="N10">
-        <v>1659.70205225001</v>
+        <v>6791.824585</v>
       </c>
       <c r="O10">
-        <v>0.4546051400714705</v>
+        <v>0.3767392733645568</v>
       </c>
       <c r="P10">
-        <v>0.4546051400714705</v>
+        <v>0.3767717954835726</v>
       </c>
       <c r="Q10">
-        <v>110661.0201113796</v>
+        <v>164722.2567418495</v>
       </c>
       <c r="R10">
-        <v>110661.0201113796</v>
+        <v>1482500.310676646</v>
       </c>
       <c r="S10">
-        <v>0.1736560160185226</v>
+        <v>0.1290254501770436</v>
       </c>
       <c r="T10">
-        <v>0.1736560160185226</v>
+        <v>0.1425588755409358</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>66.67523243787021</v>
+        <v>72.75905966666666</v>
       </c>
       <c r="H11">
-        <v>66.67523243787021</v>
+        <v>218.277179</v>
       </c>
       <c r="I11">
-        <v>0.3819930764338067</v>
+        <v>0.3424794262216203</v>
       </c>
       <c r="J11">
-        <v>0.3819930764338067</v>
+        <v>0.378369286793261</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.48703392818052</v>
+        <v>1.5561305</v>
       </c>
       <c r="N11">
-        <v>1.48703392818052</v>
+        <v>3.112261</v>
       </c>
       <c r="O11">
-        <v>0.0004073100146469559</v>
+        <v>0.0002589534519745364</v>
       </c>
       <c r="P11">
-        <v>0.0004073100146469559</v>
+        <v>0.0001726505374672451</v>
       </c>
       <c r="Q11">
-        <v>99.14833280443537</v>
+        <v>113.2225918986198</v>
       </c>
       <c r="R11">
-        <v>99.14833280443537</v>
+        <v>679.335551391719</v>
       </c>
       <c r="S11">
-        <v>0.0001555896055572895</v>
+        <v>8.868622965034714E-05</v>
       </c>
       <c r="T11">
-        <v>0.0001555896055572895</v>
+        <v>6.532566072595473E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>31.5251672911119</v>
+        <v>32.47217933333334</v>
       </c>
       <c r="H12">
-        <v>31.5251672911119</v>
+        <v>97.416538</v>
       </c>
       <c r="I12">
-        <v>0.1806127282697317</v>
+        <v>0.1528476783124299</v>
       </c>
       <c r="J12">
-        <v>0.1806127282697317</v>
+        <v>0.1688652298595476</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.99774075956296</v>
+        <v>3.757653333333334</v>
       </c>
       <c r="N12">
-        <v>2.99774075956296</v>
+        <v>11.27296</v>
       </c>
       <c r="O12">
-        <v>0.0008211042193094737</v>
+        <v>0.0006253057195333491</v>
       </c>
       <c r="P12">
-        <v>0.0008211042193094737</v>
+        <v>0.0006253596992176285</v>
       </c>
       <c r="Q12">
-        <v>94.50427894060716</v>
+        <v>122.0191929124978</v>
       </c>
       <c r="R12">
-        <v>94.50427894060716</v>
+        <v>1098.17273621248</v>
       </c>
       <c r="S12">
-        <v>0.0001483018732432721</v>
+        <v>9.557652746615583E-05</v>
       </c>
       <c r="T12">
-        <v>0.0001483018732432721</v>
+        <v>0.0001056015093532824</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>31.5251672911119</v>
+        <v>32.47217933333334</v>
       </c>
       <c r="H13">
-        <v>31.5251672911119</v>
+        <v>97.416538</v>
       </c>
       <c r="I13">
-        <v>0.1806127282697317</v>
+        <v>0.1528476783124299</v>
       </c>
       <c r="J13">
-        <v>0.1806127282697317</v>
+        <v>0.1688652298595476</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.47644740283372</v>
+        <v>6.337854</v>
       </c>
       <c r="N13">
-        <v>3.47644740283372</v>
+        <v>19.013562</v>
       </c>
       <c r="O13">
-        <v>0.0009522256457861252</v>
+        <v>0.001054673224006999</v>
       </c>
       <c r="P13">
-        <v>0.0009522256457861252</v>
+        <v>0.001054764268956488</v>
       </c>
       <c r="Q13">
-        <v>109.5955859530845</v>
+        <v>205.803931676484</v>
       </c>
       <c r="R13">
-        <v>109.5955859530845</v>
+        <v>1852.235385088356</v>
       </c>
       <c r="S13">
-        <v>0.0001719840718138392</v>
+        <v>0.0001612043536677551</v>
       </c>
       <c r="T13">
-        <v>0.0001719840718138392</v>
+        <v>0.000178113010724975</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>31.5251672911119</v>
+        <v>32.47217933333334</v>
       </c>
       <c r="H14">
-        <v>31.5251672911119</v>
+        <v>97.416538</v>
       </c>
       <c r="I14">
-        <v>0.1806127282697317</v>
+        <v>0.1528476783124299</v>
       </c>
       <c r="J14">
-        <v>0.1806127282697317</v>
+        <v>0.1688652298595476</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1983.20185223735</v>
+        <v>3733.712707666667</v>
       </c>
       <c r="N14">
-        <v>1983.20185223735</v>
+        <v>11201.138123</v>
       </c>
       <c r="O14">
-        <v>0.5432142200487869</v>
+        <v>0.6213217942399283</v>
       </c>
       <c r="P14">
-        <v>0.5432142200487869</v>
+        <v>0.6213754300107861</v>
       </c>
       <c r="Q14">
-        <v>62520.77016382544</v>
+        <v>121241.7886224976</v>
       </c>
       <c r="R14">
-        <v>62520.77016382544</v>
+        <v>1091176.097602478</v>
       </c>
       <c r="S14">
-        <v>0.09811140231792577</v>
+        <v>0.09496759373448631</v>
       </c>
       <c r="T14">
-        <v>0.09811140231792577</v>
+        <v>0.1049287048178466</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>31.5251672911119</v>
+        <v>32.47217933333334</v>
       </c>
       <c r="H15">
-        <v>31.5251672911119</v>
+        <v>97.416538</v>
       </c>
       <c r="I15">
-        <v>0.1806127282697317</v>
+        <v>0.1528476783124299</v>
       </c>
       <c r="J15">
-        <v>0.1806127282697317</v>
+        <v>0.1688652298595476</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1659.70205225001</v>
+        <v>2263.941528333333</v>
       </c>
       <c r="N15">
-        <v>1659.70205225001</v>
+        <v>6791.824585</v>
       </c>
       <c r="O15">
-        <v>0.4546051400714705</v>
+        <v>0.3767392733645568</v>
       </c>
       <c r="P15">
-        <v>0.4546051400714705</v>
+        <v>0.3767717954835726</v>
       </c>
       <c r="Q15">
-        <v>52322.38485058331</v>
+        <v>73515.11530822076</v>
       </c>
       <c r="R15">
-        <v>52322.38485058331</v>
+        <v>661636.0377739868</v>
       </c>
       <c r="S15">
-        <v>0.08210747463375179</v>
+        <v>0.05758372326288436</v>
       </c>
       <c r="T15">
-        <v>0.08210747463375179</v>
+        <v>0.06362365584892793</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>31.5251672911119</v>
+        <v>32.47217933333334</v>
       </c>
       <c r="H16">
-        <v>31.5251672911119</v>
+        <v>97.416538</v>
       </c>
       <c r="I16">
-        <v>0.1806127282697317</v>
+        <v>0.1528476783124299</v>
       </c>
       <c r="J16">
-        <v>0.1806127282697317</v>
+        <v>0.1688652298595476</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.48703392818052</v>
+        <v>1.5561305</v>
       </c>
       <c r="N16">
-        <v>1.48703392818052</v>
+        <v>3.112261</v>
       </c>
       <c r="O16">
-        <v>0.0004073100146469559</v>
+        <v>0.0002589534519745364</v>
       </c>
       <c r="P16">
-        <v>0.0004073100146469559</v>
+        <v>0.0001726505374672451</v>
       </c>
       <c r="Q16">
-        <v>46.87899335345017</v>
+        <v>50.53094866206968</v>
       </c>
       <c r="R16">
-        <v>46.87899335345017</v>
+        <v>303.185691972418</v>
       </c>
       <c r="S16">
-        <v>7.356537299697106E-05</v>
+        <v>3.95804339252972E-05</v>
       </c>
       <c r="T16">
-        <v>7.356537299697106E-05</v>
+        <v>2.915467269478078E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>29.5176419125535</v>
+        <v>31.72585433333333</v>
       </c>
       <c r="H17">
-        <v>29.5176419125535</v>
+        <v>95.17756299999999</v>
       </c>
       <c r="I17">
-        <v>0.1691112941189164</v>
+        <v>0.1493347005616749</v>
       </c>
       <c r="J17">
-        <v>0.1691112941189164</v>
+        <v>0.1649841123841474</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.99774075956296</v>
+        <v>3.757653333333334</v>
       </c>
       <c r="N17">
-        <v>2.99774075956296</v>
+        <v>11.27296</v>
       </c>
       <c r="O17">
-        <v>0.0008211042193094737</v>
+        <v>0.0006253057195333491</v>
       </c>
       <c r="P17">
-        <v>0.0008211042193094737</v>
+        <v>0.0006253596992176285</v>
       </c>
       <c r="Q17">
-        <v>88.48623828744559</v>
+        <v>119.2147622884978</v>
       </c>
       <c r="R17">
-        <v>88.48623828744559</v>
+        <v>1072.93286059648</v>
       </c>
       <c r="S17">
-        <v>0.0001388579971339276</v>
+        <v>9.337984238601536E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001388579971339276</v>
+        <v>0.0001031744148962378</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>29.5176419125535</v>
+        <v>31.72585433333333</v>
       </c>
       <c r="H18">
-        <v>29.5176419125535</v>
+        <v>95.17756299999999</v>
       </c>
       <c r="I18">
-        <v>0.1691112941189164</v>
+        <v>0.1493347005616749</v>
       </c>
       <c r="J18">
-        <v>0.1691112941189164</v>
+        <v>0.1649841123841474</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.47644740283372</v>
+        <v>6.337854</v>
       </c>
       <c r="N18">
-        <v>3.47644740283372</v>
+        <v>19.013562</v>
       </c>
       <c r="O18">
-        <v>0.0009522256457861252</v>
+        <v>0.001054673224006999</v>
       </c>
       <c r="P18">
-        <v>0.0009522256457861252</v>
+        <v>0.001054764268956488</v>
       </c>
       <c r="Q18">
-        <v>102.6165295646724</v>
+        <v>201.073832789934</v>
       </c>
       <c r="R18">
-        <v>102.6165295646724</v>
+        <v>1809.664495109406</v>
       </c>
       <c r="S18">
-        <v>0.0001610321112521125</v>
+        <v>0.0001574993100975015</v>
       </c>
       <c r="T18">
-        <v>0.0001610321112521125</v>
+        <v>0.0001740193466883003</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>29.5176419125535</v>
+        <v>31.72585433333333</v>
       </c>
       <c r="H19">
-        <v>29.5176419125535</v>
+        <v>95.17756299999999</v>
       </c>
       <c r="I19">
-        <v>0.1691112941189164</v>
+        <v>0.1493347005616749</v>
       </c>
       <c r="J19">
-        <v>0.1691112941189164</v>
+        <v>0.1649841123841474</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1983.20185223735</v>
+        <v>3733.712707666667</v>
       </c>
       <c r="N19">
-        <v>1983.20185223735</v>
+        <v>11201.138123</v>
       </c>
       <c r="O19">
-        <v>0.5432142200487869</v>
+        <v>0.6213217942399283</v>
       </c>
       <c r="P19">
-        <v>0.5432142200487869</v>
+        <v>0.6213754300107861</v>
       </c>
       <c r="Q19">
-        <v>58539.44211465494</v>
+        <v>118455.2254859482</v>
       </c>
       <c r="R19">
-        <v>58539.44211465494</v>
+        <v>1066097.029373534</v>
       </c>
       <c r="S19">
-        <v>0.09186365973624819</v>
+        <v>0.09278490409526229</v>
       </c>
       <c r="T19">
-        <v>0.09186365973624819</v>
+        <v>0.1025170737776475</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>29.5176419125535</v>
+        <v>31.72585433333333</v>
       </c>
       <c r="H20">
-        <v>29.5176419125535</v>
+        <v>95.17756299999999</v>
       </c>
       <c r="I20">
-        <v>0.1691112941189164</v>
+        <v>0.1493347005616749</v>
       </c>
       <c r="J20">
-        <v>0.1691112941189164</v>
+        <v>0.1649841123841474</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1659.70205225001</v>
+        <v>2263.941528333333</v>
       </c>
       <c r="N20">
-        <v>1659.70205225001</v>
+        <v>6791.824585</v>
       </c>
       <c r="O20">
-        <v>0.4546051400714705</v>
+        <v>0.3767392733645568</v>
       </c>
       <c r="P20">
-        <v>0.4546051400714705</v>
+        <v>0.3767717954835726</v>
       </c>
       <c r="Q20">
-        <v>48990.49085984595</v>
+        <v>71825.47914708736</v>
       </c>
       <c r="R20">
-        <v>48990.49085984595</v>
+        <v>646429.3123237863</v>
       </c>
       <c r="S20">
-        <v>0.07687886355059763</v>
+        <v>0.05626024657771908</v>
       </c>
       <c r="T20">
-        <v>0.07687886355059763</v>
+        <v>0.06216136024923875</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>29.5176419125535</v>
+        <v>31.72585433333333</v>
       </c>
       <c r="H21">
-        <v>29.5176419125535</v>
+        <v>95.17756299999999</v>
       </c>
       <c r="I21">
-        <v>0.1691112941189164</v>
+        <v>0.1493347005616749</v>
       </c>
       <c r="J21">
-        <v>0.1691112941189164</v>
+        <v>0.1649841123841474</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.48703392818052</v>
+        <v>1.5561305</v>
       </c>
       <c r="N21">
-        <v>1.48703392818052</v>
+        <v>3.112261</v>
       </c>
       <c r="O21">
-        <v>0.0004073100146469559</v>
+        <v>0.0002589534519745364</v>
       </c>
       <c r="P21">
-        <v>0.0004073100146469559</v>
+        <v>0.0001726505374672451</v>
       </c>
       <c r="Q21">
-        <v>43.89373500385039</v>
+        <v>49.36956956665716</v>
       </c>
       <c r="R21">
-        <v>43.89373500385039</v>
+        <v>296.217417399943</v>
       </c>
       <c r="S21">
-        <v>6.88807236845415E-05</v>
+        <v>3.867073621002946E-05</v>
       </c>
       <c r="T21">
-        <v>6.88807236845415E-05</v>
+        <v>2.848459567667943E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>35.0425477277497</v>
+        <v>60.454654</v>
       </c>
       <c r="H22">
-        <v>35.0425477277497</v>
+        <v>120.909308</v>
       </c>
       <c r="I22">
-        <v>0.2007643636649495</v>
+        <v>0.2845621604952103</v>
       </c>
       <c r="J22">
-        <v>0.2007643636649495</v>
+        <v>0.209588418011517</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.99774075956296</v>
+        <v>3.757653333333334</v>
       </c>
       <c r="N22">
-        <v>2.99774075956296</v>
+        <v>11.27296</v>
       </c>
       <c r="O22">
-        <v>0.0008211042193094737</v>
+        <v>0.0006253057195333491</v>
       </c>
       <c r="P22">
-        <v>0.0008211042193094737</v>
+        <v>0.0006253596992176285</v>
       </c>
       <c r="Q22">
-        <v>105.0484736424057</v>
+        <v>227.1676321186133</v>
       </c>
       <c r="R22">
-        <v>105.0484736424057</v>
+        <v>1363.00579271168</v>
       </c>
       <c r="S22">
-        <v>0.0001648484660922716</v>
+        <v>0.0001779383465204219</v>
       </c>
       <c r="T22">
-        <v>0.0001648484660922716</v>
+        <v>0.0001310681500471809</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>35.0425477277497</v>
+        <v>60.454654</v>
       </c>
       <c r="H23">
-        <v>35.0425477277497</v>
+        <v>120.909308</v>
       </c>
       <c r="I23">
-        <v>0.2007643636649495</v>
+        <v>0.2845621604952103</v>
       </c>
       <c r="J23">
-        <v>0.2007643636649495</v>
+        <v>0.209588418011517</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.47644740283372</v>
+        <v>6.337854</v>
       </c>
       <c r="N23">
-        <v>3.47644740283372</v>
+        <v>19.013562</v>
       </c>
       <c r="O23">
-        <v>0.0009522256457861252</v>
+        <v>0.001054673224006999</v>
       </c>
       <c r="P23">
-        <v>0.0009522256457861252</v>
+        <v>0.001054764268956488</v>
       </c>
       <c r="Q23">
-        <v>121.8235740368121</v>
+        <v>383.152770672516</v>
       </c>
       <c r="R23">
-        <v>121.8235740368121</v>
+        <v>2298.916624035096</v>
       </c>
       <c r="S23">
-        <v>0.000191172975841697</v>
+        <v>0.0003001200912398806</v>
       </c>
       <c r="T23">
-        <v>0.000191172975841697</v>
+        <v>0.0002210663745056646</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>35.0425477277497</v>
+        <v>60.454654</v>
       </c>
       <c r="H24">
-        <v>35.0425477277497</v>
+        <v>120.909308</v>
       </c>
       <c r="I24">
-        <v>0.2007643636649495</v>
+        <v>0.2845621604952103</v>
       </c>
       <c r="J24">
-        <v>0.2007643636649495</v>
+        <v>0.209588418011517</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1983.20185223735</v>
+        <v>3733.712707666667</v>
       </c>
       <c r="N24">
-        <v>1983.20185223735</v>
+        <v>11201.138123</v>
       </c>
       <c r="O24">
-        <v>0.5432142200487869</v>
+        <v>0.6213217942399283</v>
       </c>
       <c r="P24">
-        <v>0.5432142200487869</v>
+        <v>0.6213754300107861</v>
       </c>
       <c r="Q24">
-        <v>69496.44556078895</v>
+        <v>225720.3098773915</v>
       </c>
       <c r="R24">
-        <v>69496.44556078895</v>
+        <v>1354321.859264349</v>
       </c>
       <c r="S24">
-        <v>0.1090580572218465</v>
+        <v>0.1768046721316745</v>
       </c>
       <c r="T24">
-        <v>0.1090580572218465</v>
+        <v>0.1302330933671868</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>35.0425477277497</v>
+        <v>60.454654</v>
       </c>
       <c r="H25">
-        <v>35.0425477277497</v>
+        <v>120.909308</v>
       </c>
       <c r="I25">
-        <v>0.2007643636649495</v>
+        <v>0.2845621604952103</v>
       </c>
       <c r="J25">
-        <v>0.2007643636649495</v>
+        <v>0.209588418011517</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1659.70205225001</v>
+        <v>2263.941528333333</v>
       </c>
       <c r="N25">
-        <v>1659.70205225001</v>
+        <v>6791.824585</v>
       </c>
       <c r="O25">
-        <v>0.4546051400714705</v>
+        <v>0.3767392733645568</v>
       </c>
       <c r="P25">
-        <v>0.4546051400714705</v>
+        <v>0.3767717954835726</v>
       </c>
       <c r="Q25">
-        <v>58160.1883798151</v>
+        <v>136865.8017716228</v>
       </c>
       <c r="R25">
-        <v>58160.1883798151</v>
+        <v>821194.8106297372</v>
       </c>
       <c r="S25">
-        <v>0.09126851166526398</v>
+        <v>0.1072057415720139</v>
       </c>
       <c r="T25">
-        <v>0.09126851166526398</v>
+        <v>0.07896700456676081</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>35.0425477277497</v>
+        <v>60.454654</v>
       </c>
       <c r="H26">
-        <v>35.0425477277497</v>
+        <v>120.909308</v>
       </c>
       <c r="I26">
-        <v>0.2007643636649495</v>
+        <v>0.2845621604952103</v>
       </c>
       <c r="J26">
-        <v>0.2007643636649495</v>
+        <v>0.209588418011517</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.48703392818052</v>
+        <v>1.5561305</v>
       </c>
       <c r="N26">
-        <v>1.48703392818052</v>
+        <v>3.112261</v>
       </c>
       <c r="O26">
-        <v>0.0004073100146469559</v>
+        <v>0.0002589534519745364</v>
       </c>
       <c r="P26">
-        <v>0.0004073100146469559</v>
+        <v>0.0001726505374672451</v>
       </c>
       <c r="Q26">
-        <v>52.10945740104899</v>
+        <v>94.075330956347</v>
       </c>
       <c r="R26">
-        <v>52.10945740104899</v>
+        <v>376.301323825388</v>
       </c>
       <c r="S26">
-        <v>8.177333590495734E-05</v>
+        <v>7.368835376156678E-05</v>
       </c>
       <c r="T26">
-        <v>8.177333590495734E-05</v>
+        <v>3.618555301659806E-05</v>
       </c>
     </row>
   </sheetData>
